--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.26.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.26.xlsx
@@ -226,6 +226,9 @@
     <t>?med</t>
   </si>
   <si>
+    <t>[?]med</t>
+  </si>
+  <si>
     <t>לא. מסדרה של בדיקות. הגלוק...</t>
   </si>
   <si>
@@ -295,9 +298,6 @@
     <t>מישהו בכיר ממך ראה את הבדיקה הזאת?</t>
   </si>
   <si>
-    <t>[?]med</t>
-  </si>
-  <si>
     <t xml:space="preserve">כן. בהחלט. במחלקה בהחלט. אנחנו עובדים בצוות במחלקה. </t>
   </si>
   <si>
@@ -340,6 +340,9 @@
     <t>?l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>הוא יעבור דקירות יומיות.</t>
   </si>
   <si>
@@ -365,9 +368,6 @@
   </si>
   <si>
     <t>יש את החברה ש... ש... ש... שצריך לקטוע להם את הרגליים בגיל ארבעים והם מתעוורים בגיל חמישים וכל מיני דברים כאלה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>אנחנו לא מדברים על המקרה הזה. יואב לא נמצא ב... בסיטואציה הזאתי. הבעיה של יואב...</t>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>61</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1886,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1897,7 +1897,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>61</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>47</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
         <v>21</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2163,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
@@ -2222,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
